--- a/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
+++ b/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
@@ -10,7 +10,8 @@
     <sheet name="CH4" sheetId="1" r:id="rId1"/>
     <sheet name="CO2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,8 +20,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="AM2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Started on 16.08.17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 Days old samples</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -86,13 +145,19 @@
   </si>
   <si>
     <t>NMS-mRosea_B</t>
+  </si>
+  <si>
+    <t>NoCH4Control_A</t>
+  </si>
+  <si>
+    <t>NoCH4Control_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +172,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,13 +214,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AL4"/>
+  <dimension ref="C2:AL5"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,187 +515,187 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="s">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="1"/>
+      <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="3:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>42958</v>
       </c>
       <c r="D4">
@@ -715,20 +802,121 @@
       </c>
       <c r="AL4">
         <v>307.88</v>
+      </c>
+    </row>
+    <row r="5" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5-C4</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F5" s="1">
+        <v>17.77</v>
+      </c>
+      <c r="G5" s="1">
+        <v>119.66</v>
+      </c>
+      <c r="H5" s="1">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>124.8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>322.83</v>
+      </c>
+      <c r="K5" s="1">
+        <v>115.46</v>
+      </c>
+      <c r="L5" s="1">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>303.7</v>
+      </c>
+      <c r="O5" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>218.39</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>82.66</v>
+      </c>
+      <c r="R5" s="1">
+        <v>212.81</v>
+      </c>
+      <c r="S5" s="1">
+        <v>89.15</v>
+      </c>
+      <c r="T5" s="1">
+        <v>229.74</v>
+      </c>
+      <c r="U5" s="1">
+        <v>89.78</v>
+      </c>
+      <c r="V5" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="W5" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="X5" s="1">
+        <v>220.7</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>225.3</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>166.22499999999999</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>179.15</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>96.36</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>248.55</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>82.26</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>211.76</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>248.26</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>91.12</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>234.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -736,204 +924,236 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AL4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AP6" sqref="AP6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="s">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="1"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" s="3"/>
     </row>
-    <row r="3" spans="3:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+    <row r="4" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
         <v>42958</v>
       </c>
       <c r="D4">
@@ -1041,19 +1261,145 @@
       <c r="AL4">
         <v>0.13600000000000001</v>
       </c>
+      <c r="AM4" s="5">
+        <v>68.2</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>68.5</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0.13250000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>42965</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>269.76</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24.18</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="M5" s="1">
+        <v>306.8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="O5" s="1">
+        <v>267.3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="S5" s="1">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="U5" s="1">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="W5" s="1">
+        <v>272.85000000000002</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>286.63</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>350.33</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>284.58</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>245.66</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>234.8</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>256.48</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>129.9</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.2382</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>118.78</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.21779999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
+  <mergeCells count="19">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1061,7 +1407,18 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
+++ b/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH4" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,70 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AM2" authorId="0" shapeId="0">
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+solid result, measured twice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+added 0.2 ml pure ch4 and 1.5 ml of corresponding liquid</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0" shapeId="0">
+    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,15 +272,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AL5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,74 +575,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="3"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -804,115 +864,448 @@
         <v>307.88</v>
       </c>
     </row>
-    <row r="5" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
+    <row r="5" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
         <v>42965</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <f>C5-C4</f>
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>17.77</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>119.66</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>309.35000000000002</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>124.8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>322.83</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>115.46</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <v>298.39999999999998</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="6">
         <v>117.5</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="6">
         <v>303.7</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="6">
         <v>84.8</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="6">
         <v>218.39</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="6">
         <v>82.66</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="6">
         <v>212.81</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="6">
         <v>89.15</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="6">
         <v>229.74</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="6">
         <v>89.78</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="6">
         <v>231.4</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="6">
         <v>85.7</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="6">
         <v>220.7</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="6">
         <v>87.4</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="6">
         <v>225.3</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="6">
         <v>64.8</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="6">
         <v>166.22499999999999</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="6">
         <v>69.760000000000005</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="6">
         <v>179.15</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="6">
         <v>96.36</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="6">
         <v>248.55</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="6">
         <v>82.26</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="6">
         <v>211.76</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="6">
         <v>96.25</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="6">
         <v>248.26</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="6">
         <v>91.12</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="6">
         <v>234.8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>42972</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6-C4</f>
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F6" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>42972</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7-C4</f>
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>614.27</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1596.82</v>
+      </c>
+      <c r="G7" s="6">
+        <v>121</v>
+      </c>
+      <c r="H7" s="6">
+        <v>314.5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>127.79</v>
+      </c>
+      <c r="J7" s="6">
+        <v>332.16</v>
+      </c>
+      <c r="K7" s="6">
+        <v>97.69</v>
+      </c>
+      <c r="L7" s="6">
+        <v>253.9</v>
+      </c>
+      <c r="M7" s="6">
+        <v>104.21</v>
+      </c>
+      <c r="N7" s="6">
+        <v>270.85000000000002</v>
+      </c>
+      <c r="O7" s="6">
+        <v>41.17</v>
+      </c>
+      <c r="P7" s="6">
+        <v>106.99</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>41.48</v>
+      </c>
+      <c r="R7" s="6">
+        <v>107.77</v>
+      </c>
+      <c r="S7" s="6">
+        <v>55.73</v>
+      </c>
+      <c r="T7" s="6">
+        <v>144.84</v>
+      </c>
+    </row>
+    <row r="8" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>42973</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8-C4</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>613.27</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1575.57</v>
+      </c>
+      <c r="S8" s="6">
+        <v>46.71</v>
+      </c>
+      <c r="T8" s="6">
+        <v>119.84</v>
+      </c>
+      <c r="U8" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="V8" s="6">
+        <v>68.17</v>
+      </c>
+      <c r="W8" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="X8" s="6">
+        <v>89.71</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>102.6</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>15.31</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>22.89</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>58.62</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>54.56</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>140</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>36.67</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>94</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>78.11</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>200</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>55.56</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>142.56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>42973</v>
+      </c>
+      <c r="D9" s="6">
+        <f>C9-C4</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>807.17</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2073</v>
+      </c>
+      <c r="I9" s="6">
+        <v>792.62</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2036</v>
+      </c>
+      <c r="K9" s="6">
+        <v>927.66</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2383</v>
+      </c>
+      <c r="M9" s="6">
+        <v>944.26</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2426</v>
+      </c>
+      <c r="O9" s="6">
+        <v>735.97</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1890</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>737.57</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1894</v>
+      </c>
+      <c r="S9" s="6">
+        <v>766.25</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1968.65</v>
+      </c>
+      <c r="U9" s="6">
+        <v>757.55</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1946</v>
+      </c>
+      <c r="W9" s="6">
+        <v>746.45</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1917</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>750.81</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>1928</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>764</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>1963.25</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>823.09</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>2114.69</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>777.11</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>1996.55</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>839</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>2156</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>525</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>1349</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>1394</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="10" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>42979</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10-C4</f>
+        <v>21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>800.32</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2082</v>
+      </c>
+      <c r="I10" s="1">
+        <v>802.31</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2087.4699999999998</v>
+      </c>
+      <c r="K10" s="1">
+        <v>788</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2050</v>
+      </c>
+      <c r="M10" s="1">
+        <v>777.23</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2022.17</v>
+      </c>
+      <c r="O10" s="1">
+        <v>716.7</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1864.62</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>678.07</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1764.06</v>
+      </c>
+      <c r="S10" s="1">
+        <v>747.3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1944.36</v>
+      </c>
+      <c r="U10" s="1">
+        <v>726.65</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1890.5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>681.76</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1773.65</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>772.4</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>710.1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1847.43</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>782.58</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>2036.11</v>
       </c>
     </row>
   </sheetData>
@@ -936,15 +1329,17 @@
     <mergeCell ref="AK2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,82 +1348,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="3"/>
+      <c r="AP2" s="7"/>
     </row>
     <row r="3" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -1261,145 +1656,287 @@
       <c r="AL4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4" s="4">
         <v>68.2</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AO4" s="4">
         <v>68.5</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" s="4">
         <v>0.13250000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
+    <row r="5" spans="3:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
         <v>42965</v>
       </c>
-      <c r="D5" s="1">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
         <v>269.76</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>0.49459999999999998</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>26.3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>24.18</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>283.60000000000002</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <v>0.52</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="6">
         <v>306.8</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="6">
         <v>0.5625</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="6">
         <v>267.3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="6">
         <v>0.49</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="6">
         <v>257.39999999999998</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="6">
         <v>0.47</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="6">
         <v>274.60000000000002</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="6">
         <v>0.50349999999999995</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="6">
         <v>281.14999999999998</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="6">
         <v>0.51549999999999996</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="6">
         <v>272.85000000000002</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="6">
         <v>0.5</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="6">
         <v>286.63</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="6">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="6">
         <v>350.33</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="6">
         <v>0.64229999999999998</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="6">
         <v>323.39999999999998</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="6">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="6">
         <v>284.58</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="6">
         <v>0.52180000000000004</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="6">
         <v>245.66</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="6">
         <v>0.45040000000000002</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="6">
         <v>234.8</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="6">
         <v>0.43</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="6">
         <v>256.48</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="6">
         <v>0.47</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="6">
         <v>129.9</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="6">
         <v>0.2382</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="6">
         <v>118.78</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="6">
         <v>0.21779999999999999</v>
       </c>
+    </row>
+    <row r="6" spans="3:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>42972</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6-C4</f>
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>193.33</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10.62</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="6">
+        <v>9.85</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>216.3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="M6" s="6">
+        <v>240.81</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="O6" s="6">
+        <v>205.58</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>204</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="S6" s="6">
+        <v>249</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>42973</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7-C4</f>
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>242.37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="U7" s="1">
+        <v>256.2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="W7" s="1">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>270.7</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>337.89</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>329.64</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>289.05</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>245.9</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>225</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>258.26</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>206</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>171</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1412,13 +1949,14 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
+++ b/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH4" sheetId="1" r:id="rId1"/>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AL10"/>
+  <dimension ref="C2:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,89 +1227,199 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="10" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+    <row r="10" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
         <v>42979</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <f>C10-C4</f>
         <v>21</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>800.32</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <v>2082</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>802.31</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>2087.4699999999998</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="6">
         <v>788</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <v>2050</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6">
         <v>777.23</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="6">
         <v>2022.17</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="6">
         <v>716.7</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="6">
         <v>1864.62</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="6">
         <v>678.07</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="6">
         <v>1764.06</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="6">
         <v>747.3</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="6">
         <v>1944.36</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="6">
         <v>726.65</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="6">
         <v>1890.5</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="6">
         <v>681.76</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="6">
         <v>1773.65</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="6">
         <v>772.4</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="6">
         <v>2009</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="6">
         <v>710.1</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="6">
         <v>1847.43</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="6">
         <v>782.58</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="6">
         <v>2036.11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>42986</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11-C4</f>
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>794.93</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2080.6799999999998</v>
+      </c>
+      <c r="I11" s="6">
+        <v>772.17</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2021.06</v>
+      </c>
+      <c r="K11" s="1">
+        <v>770.68</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2017.17</v>
+      </c>
+      <c r="M11" s="1">
+        <v>727.73</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1904.6679999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>680.41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1780.7</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>635.91</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1664.15</v>
+      </c>
+      <c r="S11" s="1">
+        <v>703.56</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1841.34</v>
+      </c>
+      <c r="U11" s="1">
+        <v>684.68</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1791.89</v>
+      </c>
+      <c r="W11" s="1">
+        <v>611.41</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1599.95</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>574.59</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1778.52</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>677.94</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1774.17</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>559.4</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1463.74</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>701.47</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1835.87</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>588.16</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1539.06</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>491.08</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1284.77</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1305</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>3416.85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1322,11 +1432,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1338,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AP8"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,93 +1953,171 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+    <row r="7" spans="3:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
         <v>42973</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <f>C7-C4</f>
         <v>15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>242.37</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>0.89</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="6">
         <v>256.2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="6">
         <v>0.94</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="6">
         <v>263.89999999999998</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="6">
         <v>0.97130000000000005</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="6">
         <v>270.7</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="6">
         <v>0.99609999999999999</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="6">
         <v>337.89</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="6">
         <v>1.24</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="6">
         <v>329.64</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="6">
         <v>1.21</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="6">
         <v>289.05</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="6">
         <v>1.06</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="6">
         <v>245.9</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="6">
         <v>0.9</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="6">
         <v>225</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="6">
         <v>0.82799999999999996</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="6">
         <v>258.26</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="6">
         <v>0.95</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="6">
         <v>206</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="6">
         <v>0.76</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="6">
         <v>171</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7" s="6">
         <v>0.62929999999999997</v>
       </c>
     </row>
-    <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+    <row r="8" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>42986</v>
+      </c>
+      <c r="M8" s="1">
+        <v>653.23</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.9863999999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>595.79999999999995</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>564.39</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.7162999999999999</v>
+      </c>
+      <c r="S8" s="1">
+        <v>724.58</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U8" s="1">
+        <v>583.70000000000005</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="W8" s="1">
+        <v>574.59</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>812.75</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>735.65</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>493.9</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>592.59</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>578.9</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1.76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AA2:AB2"/>
@@ -1949,11 +2132,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
+++ b/pp_gas_enrichments/NM2_2_ThinFilm_LiquidMedia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -74,6 +74,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{DCA638D6-18C2-41E4-ACD1-CC03F3E6DD54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dry control went to serve to the ethlene oxidation experiment</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -137,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -209,13 +233,47 @@
   </si>
   <si>
     <t>NoCH4Control_B</t>
+  </si>
+  <si>
+    <t>stdCh4</t>
+  </si>
+  <si>
+    <t>stdCo2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,19 +296,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,17 +317,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AL11"/>
+  <dimension ref="A2:AL12"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,77 +625,83 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7" t="s">
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="7"/>
+      <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C4" s="2">
         <v>42958</v>
       </c>
@@ -864,562 +921,668 @@
         <v>307.88</v>
       </c>
     </row>
-    <row r="5" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5">
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
         <v>42965</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>C5-C4</f>
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>17.77</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>119.66</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>309.35000000000002</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>124.8</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>322.83</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>115.46</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>298.39999999999998</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>117.5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>303.7</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>84.8</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>218.39</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>82.66</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>212.81</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>89.15</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>229.74</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>89.78</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>231.4</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>85.7</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>220.7</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <v>87.4</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="5">
         <v>225.3</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="5">
         <v>64.8</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="5">
         <v>166.22499999999999</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="5">
         <v>69.760000000000005</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="5">
         <v>179.15</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="5">
         <v>96.36</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="5">
         <v>248.55</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="5">
         <v>82.26</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="5">
         <v>211.76</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="5">
         <v>96.25</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="5">
         <v>248.26</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AK5" s="5">
         <v>91.12</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="5">
         <v>234.8</v>
       </c>
     </row>
-    <row r="6" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
+    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
         <v>42972</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>C6-C4</f>
         <v>14</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>11.5</v>
       </c>
     </row>
-    <row r="7" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
+    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
         <v>42972</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>C7-C4</f>
         <v>14</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>614.27</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1596.82</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>121</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>314.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>127.79</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>332.16</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>97.69</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>253.9</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>104.21</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>270.85000000000002</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>41.17</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>106.99</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>41.48</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>107.77</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>55.73</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>144.84</v>
       </c>
     </row>
-    <row r="8" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5">
+    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
         <v>42973</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>C8-C4</f>
         <v>15</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>613.27</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1575.57</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>46.71</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>119.84</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>26.6</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>68.17</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>34.9</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>89.71</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <v>40</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="5">
         <v>102.6</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <v>15.31</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="5">
         <v>39.159999999999997</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="5">
         <v>22.89</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="5">
         <v>58.62</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="5">
         <v>54.56</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="5">
         <v>140</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="5">
         <v>36.67</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="5">
         <v>94</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="5">
         <v>78.11</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="5">
         <v>200</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="5">
         <v>55.56</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="5">
         <v>142.56</v>
       </c>
     </row>
-    <row r="9" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
+    <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
         <v>42973</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>C9-C4</f>
         <v>15</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>807.17</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2073</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>792.62</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2036</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>927.66</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>2383</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>944.26</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>2426</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>735.97</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>1890</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>737.57</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>1894</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>766.25</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>1968.65</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>757.55</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>1946</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>746.45</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>1917</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>750.81</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <v>1928</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <v>764</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <v>1963.25</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <v>823.09</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="5">
         <v>2114.69</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <v>777.11</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="5">
         <v>1996.55</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="5">
         <v>839</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AH9" s="5">
         <v>2156</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="5">
         <v>525</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="5">
         <v>1349</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="5">
         <v>1394</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AL9" s="5">
         <v>3582</v>
       </c>
     </row>
-    <row r="10" spans="3:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5">
+    <row r="10" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
         <v>42979</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>C10-C4</f>
         <v>21</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>800.32</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>2082</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>802.31</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>2087.4699999999998</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>788</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>2050</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>777.23</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>2022.17</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>716.7</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>1864.62</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>678.07</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>1764.06</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>747.3</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>1944.36</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>726.65</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>1890.5</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>681.76</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>1773.65</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>772.4</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <v>2009</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <v>710.1</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <v>1847.43</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <v>782.58</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <v>2036.11</v>
       </c>
     </row>
-    <row r="11" spans="3:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+    <row r="11" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
         <v>42986</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <f>C11-C4</f>
         <v>28</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>794.93</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>2080.6799999999998</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>772.17</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="5">
         <v>2021.06</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="5">
         <v>770.68</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <v>2017.17</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="5">
         <v>727.73</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="5">
         <v>1904.6679999999999</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="5">
         <v>680.41</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="5">
         <v>1780.7</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="5">
         <v>635.91</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="5">
         <v>1664.15</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="5">
         <v>703.56</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="5">
         <v>1841.34</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="5">
         <v>684.68</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="5">
         <v>1791.89</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="5">
         <v>611.41</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="5">
         <v>1599.95</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="5">
         <v>574.59</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="5">
         <v>1778.52</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="5">
         <v>677.94</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="5">
         <v>1774.17</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="5">
         <v>559.4</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="5">
         <v>1463.74</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="5">
         <v>701.47</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="5">
         <v>1835.87</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="5">
         <v>588.16</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="5">
         <v>1539.06</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="5">
         <v>491.08</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="5">
         <v>1284.77</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="5">
         <v>1305</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AL11" s="5">
         <v>3416.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1956</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43004</v>
+      </c>
+      <c r="D12" s="1">
+        <f>C12-$C$4</f>
+        <v>46</v>
+      </c>
+      <c r="G12" s="1">
+        <v>832.34</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2125.77</v>
+      </c>
+      <c r="I12" s="1">
+        <v>801.22</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2046.21</v>
+      </c>
+      <c r="K12" s="1">
+        <v>779.18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1989.13</v>
+      </c>
+      <c r="M12" s="1">
+        <v>751.12</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1918.11</v>
+      </c>
+      <c r="O12" s="1">
+        <v>619.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1581.6</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>672.24</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1716.4480000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>724.97</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1851.26</v>
+      </c>
+      <c r="U12" s="1">
+        <v>669.2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1708.76</v>
+      </c>
+      <c r="W12" s="1">
+        <v>582.23</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1486.32</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>694.28</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1772.8</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>693.99</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1772.05</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>477.04</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1217.3699999999999</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>734.59</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1875.85</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>474.48899999999998</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1210.8399999999999</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>513.58000000000004</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1310.79</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1370.9</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>3532.76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1432,6 +1595,11 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1441,683 +1609,794 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AP8"/>
+  <dimension ref="A2:AP9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7" t="s">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7" t="s">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7" t="s">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="7"/>
+      <c r="AP2" s="8"/>
     </row>
-    <row r="3" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AA3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AC3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AE3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AG3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AI3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AK3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AM3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AO3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
         <v>42958</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>75.3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>25.8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>4.99E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>25.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>82.12</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>0.158</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>87.5</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <v>0.16900000000000001</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>68.2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="7">
         <v>68.5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="7">
         <v>0.13250000000000001</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="7">
         <v>77.17</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="7">
         <v>75.7</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="7">
         <v>0.14649999999999999</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="7">
         <v>77.150000000000006</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="7">
         <v>73.47</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="7">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="7">
         <v>88.36</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="7">
         <v>0.17080000000000001</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="7">
         <v>82.6</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="7">
         <v>0.15970000000000001</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="7">
         <v>75.900000000000006</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="7">
         <v>0.1469</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="7">
         <v>73.900000000000006</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="7">
         <v>73.3</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="7">
         <v>0.14180000000000001</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="7">
         <v>70.75</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="7">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AM4" s="11">
         <v>68.2</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="11">
         <v>68.5</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="11">
         <v>0.13250000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
         <v>42965</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>269.76</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.49459999999999998</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>26.3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>24.18</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>283.60000000000002</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>0.52</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>306.8</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>0.5625</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>267.3</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="7">
         <v>0.49</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <v>257.39999999999998</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="7">
         <v>0.47</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="7">
         <v>274.60000000000002</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="7">
         <v>0.50349999999999995</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="7">
         <v>281.14999999999998</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="7">
         <v>0.51549999999999996</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="7">
         <v>272.85000000000002</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="7">
         <v>0.5</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="7">
         <v>286.63</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="7">
         <v>350.33</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="7">
         <v>0.64229999999999998</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="7">
         <v>323.39999999999998</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="7">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="7">
         <v>284.58</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="7">
         <v>0.52180000000000004</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="7">
         <v>245.66</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="7">
         <v>0.45040000000000002</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="7">
         <v>234.8</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="7">
         <v>0.43</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AK5" s="7">
         <v>256.48</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="7">
         <v>0.47</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="7">
         <v>129.9</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="7">
         <v>0.2382</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AO5" s="7">
         <v>118.78</v>
       </c>
-      <c r="AP5" s="6">
+      <c r="AP5" s="7">
         <v>0.21779999999999999</v>
       </c>
     </row>
-    <row r="6" spans="3:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
         <v>42972</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <f>C6-C4</f>
         <v>14</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>193.33</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>0.74</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>10.62</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>0.04</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>9.85</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>216.3</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <v>0.82789999999999997</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>240.81</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>0.92169999999999996</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <v>205.58</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="7">
         <v>0.78680000000000005</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="7">
         <v>204</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="7">
         <v>0.78</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="7">
         <v>249</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="7">
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
         <v>42973</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <f>C7-C4</f>
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>242.37</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0.89</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="7">
         <v>256.2</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="7">
         <v>0.94</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="7">
         <v>263.89999999999998</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="7">
         <v>0.97130000000000005</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="7">
         <v>270.7</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="7">
         <v>0.99609999999999999</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="7">
         <v>337.89</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="7">
         <v>1.24</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="7">
         <v>329.64</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="7">
         <v>1.21</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="7">
         <v>289.05</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="7">
         <v>1.06</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="7">
         <v>245.9</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AH7" s="7">
         <v>0.9</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="7">
         <v>225</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="7">
         <v>0.82799999999999996</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK7" s="7">
         <v>258.26</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="7">
         <v>0.95</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AM7" s="7">
         <v>206</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="7">
         <v>0.76</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO7" s="7">
         <v>171</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AP7" s="7">
         <v>0.62929999999999997</v>
       </c>
     </row>
-    <row r="8" spans="3:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+    <row r="8" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
         <v>42986</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="5">
         <v>653.23</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="5">
         <v>1.9863999999999999</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="5">
         <v>595.79999999999995</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="5">
         <v>1.8120000000000001</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="5">
         <v>564.39</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="5">
         <v>1.7162999999999999</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="5">
         <v>724.58</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="5">
         <v>583.70000000000005</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="5">
         <v>1.77</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="5">
         <v>574.59</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="5">
         <v>1.74</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="5">
         <v>812.75</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="5">
         <v>735.65</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="5">
         <v>2.23</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="5">
         <v>631.70000000000005</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="5">
         <v>1.92</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="5">
         <v>493.9</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="5">
         <v>1.5</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="5">
         <v>592.59</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="5">
         <v>1.8</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="5">
         <v>578.9</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="5">
         <v>1.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>276</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43004</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9-$C$4</f>
+        <v>46</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.92E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9.74</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>755.9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>789.72</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="O9" s="1">
+        <v>648.04899999999998</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>655.9</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="S9" s="1">
+        <v>704.99</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1853.88</v>
+      </c>
+      <c r="U9" s="1">
+        <v>619.08000000000004</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="W9" s="1">
+        <v>709.34</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>811.65</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>883.7</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>906.04</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>707.73</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>606.16999999999996</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>570.29999999999995</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>667.46</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2.41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AA2:AB2"/>
@@ -2132,6 +2411,11 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
